--- a/sheet/cardset_story.xlsx
+++ b/sheet/cardset_story.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="116">
   <si>
     <t>名前</t>
   </si>
@@ -378,6 +378,26 @@
   </si>
   <si>
     <t>メガミへの挑戦　第8回：ハガネへの挑戦（英雄戦）</t>
+  </si>
+  <si>
+    <t>yukihi-challenge</t>
+  </si>
+  <si>
+    <t>yukihi-challenge-heroic</t>
+  </si>
+  <si>
+    <t>ユキヒへの挑戦</t>
+  </si>
+  <si>
+    <t>ユキヒへの挑戦（英雄戦）</t>
+  </si>
+  <si>
+    <t>メガミへの挑戦　第9回：ユキヒへの挑戦</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>メガミへの挑戦　第9回：ユキヒへの挑戦（英雄戦）</t>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -698,11 +718,11 @@
   <dimension ref="A1:V964"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A8" sqref="A8"/>
       <selection pane="topRight" activeCell="A8" sqref="A8"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1751,17 +1771,26 @@
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
     </row>
-    <row r="28" spans="1:22" ht="12" customHeight="1">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+    <row r="28" spans="1:22" s="4" customFormat="1" ht="12" customHeight="1">
+      <c r="A28" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="2"/>
+      <c r="J28" s="3" t="str">
+        <f t="shared" ref="J28:J29" si="4">IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A28&amp;"': { name: '"&amp;B28&amp;"', listName: '"&amp;C28&amp;"', nameZh: '"&amp;D28&amp;"', listNameZh: '"&amp;E28&amp;"',nameKo: '"&amp;F28&amp;"', listNameKo: '"&amp;G28&amp;"',nameEn: '"&amp;H28&amp;"', listNameEn: '"&amp;I28&amp;"'}"</f>
+        <v>, 'yukihi-challenge': { name: 'ユキヒへの挑戦', listName: 'メガミへの挑戦　第9回：ユキヒへの挑戦', nameZh: '', listNameZh: '',nameKo: '', listNameKo: '',nameEn: '', listNameEn: ''}</v>
+      </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -1775,17 +1804,26 @@
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
     </row>
-    <row r="29" spans="1:22" ht="12" customHeight="1">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
+    <row r="29" spans="1:22" s="4" customFormat="1" ht="12" customHeight="1">
+      <c r="A29" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="2"/>
+      <c r="J29" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>, 'yukihi-challenge-heroic': { name: 'ユキヒへの挑戦（英雄戦）', listName: 'メガミへの挑戦　第9回：ユキヒへの挑戦（英雄戦）', nameZh: '', listNameZh: '',nameKo: '', listNameKo: '',nameEn: '', listNameEn: ''}</v>
+      </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
